--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,20 +247,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,46 +541,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -620,7 +620,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -629,11 +629,11 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
@@ -642,7 +642,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -657,7 +657,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -668,28 +668,28 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
@@ -700,148 +700,148 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
@@ -852,111 +852,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -964,28 +964,28 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="9" t="s">
         <v>18</v>
       </c>
@@ -996,111 +996,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1108,28 +1108,28 @@
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="6" t="s">
         <v>18</v>
       </c>
@@ -1140,132 +1140,132 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="18"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="6" t="s">
         <v>18</v>
       </c>
@@ -1276,132 +1276,132 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="18"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="6" t="s">
         <v>18</v>
       </c>
@@ -1412,119 +1412,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="str">
         <f>B12</f>
         <v>Erik Hennig</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="str">
         <f>B31</f>
         <v>Marco Rempfer</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="str">
         <f>B48</f>
         <v>Achim Groß</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E118" s="10"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="str">
         <f>B65</f>
         <v>Benny Gerlach</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="str">
         <f>B82</f>
         <v>Lukas Niedergriese</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="str">
         <f>B98</f>
         <v>Tobias Reis</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>28</v>
       </c>
@@ -1634,15 +1634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="str">
         <f>B12</f>
         <v>Erik Hennig</v>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="str">
         <f>B31</f>
         <v>Marco Rempfer</v>
@@ -1676,7 +1676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="str">
         <f>B48</f>
         <v>Achim Groß</v>
@@ -1690,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="str">
         <f>B65</f>
         <v>Benny Gerlach</v>
@@ -1704,7 +1704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="str">
         <f>B82</f>
         <v>Lukas Niedergriese</v>
@@ -1718,7 +1718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="str">
         <f>B98</f>
         <v>Tobias Reis</v>
@@ -1732,7 +1732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>28</v>
       </c>
@@ -1751,15 +1751,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="str">
         <f>B12</f>
         <v>Erik Hennig</v>
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="str">
         <f>B31</f>
         <v>Marco Rempfer</v>
@@ -1794,7 +1794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="str">
         <f>B48</f>
         <v>Achim Groß</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="str">
         <f>B65</f>
         <v>Benny Gerlach</v>
@@ -1822,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="str">
         <f>B82</f>
         <v>Lukas Niedergriese</v>
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="str">
         <f>B98</f>
         <v>Tobias Reis</v>
@@ -1850,7 +1850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>28</v>
       </c>
@@ -1872,93 +1872,35 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:G2"/>
@@ -1972,30 +1914,88 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A138:B138"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="79">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -249,12 +249,6 @@
   </si>
   <si>
     <t>Meeting: Aufgabenverteilung, Struktur</t>
-  </si>
-  <si>
-    <t>Überarbeitung Projektzielsetzung</t>
-  </si>
-  <si>
-    <t>Arbeitsrichtlinien</t>
   </si>
   <si>
     <t>Vorlesung</t>
@@ -457,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -498,26 +492,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +526,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +538,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1005,7 +1012,7 @@
   <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B87" sqref="B87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,24 +1032,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1072,12 +1079,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1092,11 +1099,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1125,11 +1132,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1147,11 +1154,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1163,21 +1170,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1201,11 +1208,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1226,11 +1233,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1242,10 +1249,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1266,17 +1273,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1286,11 +1293,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1309,12 +1316,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="24" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1327,23 +1334,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="24" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1356,11 +1363,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>13.5</v>
@@ -1377,12 +1384,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="24" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1395,11 +1402,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1412,12 +1419,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="24" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1430,14 +1437,14 @@
         <f>'Erik Hennig'!F15</f>
         <v>3</v>
       </c>
-      <c r="I18" s="27" t="str">
+      <c r="I18" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>26</v>
@@ -1447,12 +1454,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="24" t="str">
         <f>'Erik Hennig'!A16</f>
         <v>Organisation</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1465,11 +1472,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>1</v>
       </c>
-      <c r="I19" s="27" t="str">
+      <c r="I19" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>11</v>
@@ -1482,12 +1489,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
+      <c r="B20" s="24">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1500,11 +1507,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="27" t="str">
+      <c r="I20" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>8</v>
@@ -1517,12 +1524,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
+      <c r="B21" s="24">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1535,11 +1542,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="27" t="str">
+      <c r="I21" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>15</v>
@@ -1552,12 +1559,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
+      <c r="B22" s="24">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1570,13 +1577,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1590,12 +1597,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="B23" s="24">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1617,12 +1624,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
+      <c r="B24" s="24">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1644,12 +1651,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
+      <c r="B25" s="24">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1662,23 +1669,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
+      <c r="B26" s="24">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1691,11 +1698,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="27" t="str">
+      <c r="I26" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>13.5</v>
@@ -1713,12 +1720,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
+      <c r="B27" s="24">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1731,11 +1738,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="27" t="str">
+      <c r="I27" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1748,12 +1755,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="21">
+      <c r="B28" s="24">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1766,14 +1773,14 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="27" t="str">
+      <c r="I28" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>26</v>
@@ -1783,12 +1790,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="21">
+      <c r="B29" s="24">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1801,11 +1808,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="27" t="str">
+      <c r="I29" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1818,11 +1825,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="27" t="str">
+      <c r="I30" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1835,11 +1842,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="27" t="str">
+      <c r="I31" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1855,24 +1862,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="I32" s="27" t="s">
+      <c r="G32" s="27"/>
+      <c r="I32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1887,11 +1894,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1910,12 +1917,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="24" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1937,12 +1944,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="str">
+      <c r="B35" s="24" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="15" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
@@ -1964,12 +1971,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="str">
-        <f>'Marco Rempfer'!A14</f>
-        <v>Recherche von Franworks und Tools*</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="24" t="str">
+        <f>'Achim Groß'!A14</f>
+        <v>Projektzielsetzung</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="15" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
@@ -1991,12 +1998,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="24" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="15" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
@@ -2011,12 +2018,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="21">
+      <c r="B38" s="24">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="15">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2031,12 +2038,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="21">
+      <c r="B39" s="24">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="15">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2051,12 +2058,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="21">
+      <c r="B40" s="24">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="15">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2071,12 +2078,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="21">
+      <c r="B41" s="24">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="15">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2091,12 +2098,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="21">
+      <c r="B42" s="24">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="15">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2111,12 +2118,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
+      <c r="B43" s="24">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="15">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2131,12 +2138,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="21">
+      <c r="B44" s="24">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="15">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2151,12 +2158,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="21">
+      <c r="B45" s="24">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="15">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2171,12 +2178,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
+      <c r="B46" s="24">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="15">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2203,24 +2210,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="26"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2232,237 +2239,261 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="20">
+      <c r="B51" s="24" t="str">
+        <f>'Achim Groß'!A12</f>
+        <v>Meeting: Projektbeginn</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="20" t="str">
+        <f>'Achim Groß'!D12</f>
+        <v>c</v>
+      </c>
+      <c r="F51" s="21" t="str">
+        <f>'Achim Groß'!E12</f>
+        <v>d</v>
+      </c>
+      <c r="G51" s="21">
+        <f>'Achim Groß'!F12</f>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="20">
+      <c r="B52" s="24" t="str">
+        <f>'Achim Groß'!A13</f>
+        <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="21" t="str">
+        <f>'Achim Groß'!D13</f>
+        <v>d</v>
+      </c>
+      <c r="F52" s="21" t="str">
+        <f>'Achim Groß'!E13</f>
+        <v>c</v>
+      </c>
+      <c r="G52" s="21">
+        <f>'Achim Groß'!F13</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="20">
+      <c r="B53" s="24" t="str">
+        <f>'Achim Groß'!A14</f>
+        <v>Projektzielsetzung</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="21" t="str">
+        <f>'Achim Groß'!D14</f>
+        <v>b</v>
+      </c>
+      <c r="F53" s="21" t="str">
+        <f>'Achim Groß'!E14</f>
+        <v>d</v>
+      </c>
+      <c r="G53" s="21">
+        <f>'Achim Groß'!F14</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="20">
+      <c r="B54" s="24" t="str">
+        <f>'Achim Groß'!A15</f>
+        <v>Absprache+Einrichtung Tools</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="21" t="str">
+        <f>'Achim Groß'!D15</f>
+        <v>c</v>
+      </c>
+      <c r="F54" s="21" t="str">
+        <f>'Achim Groß'!E15</f>
+        <v>c</v>
+      </c>
+      <c r="G54" s="21">
+        <f>'Achim Groß'!F15</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="20">
-        <v>0.5</v>
+      <c r="B55" s="24">
+        <f>'Achim Groß'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="21">
+        <f>'Achim Groß'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <f>'Achim Groß'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
+        <f>'Achim Groß'!F16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="20">
-        <v>0.5</v>
+      <c r="B56" s="24">
+        <f>'Achim Groß'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="21">
+        <f>'Achim Groß'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="21">
+        <f>'Achim Groß'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="21">
+        <f>'Achim Groß'!F17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="21">
+      <c r="B57" s="24">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="15">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="21">
         <f>'Achim Groß'!E18</f>
         <v>0</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="21">
         <f>'Achim Groß'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="21">
+      <c r="B58" s="24">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="15">
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="21">
         <f>'Achim Groß'!E19</f>
         <v>0</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="21">
         <f>'Achim Groß'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="21">
+      <c r="B59" s="24">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="15">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="21">
         <f>'Achim Groß'!E20</f>
         <v>0</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="21">
         <f>'Achim Groß'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="21">
+      <c r="B60" s="24">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="15">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="21">
         <f>'Achim Groß'!E21</f>
         <v>0</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="21">
         <f>'Achim Groß'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="21">
+      <c r="B61" s="24">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="15">
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="21">
         <f>'Achim Groß'!E22</f>
         <v>0</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="21">
         <f>'Achim Groß'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="21">
+      <c r="B62" s="24">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="15">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="21">
         <f>'Achim Groß'!E23</f>
         <v>0</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="21">
         <f>'Achim Groß'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="21">
+      <c r="B63" s="24">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="15">
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="21">
         <f>'Achim Groß'!E24</f>
         <v>0</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="21">
         <f>'Achim Groß'!F24</f>
         <v>0</v>
       </c>
@@ -2480,24 +2511,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="26"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2509,241 +2540,261 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="20">
+      <c r="B68" s="24" t="str">
+        <f>'Benny Gerlach'!A12</f>
+        <v>Meeting: Projektbeginn</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="21" t="str">
+        <f>'Benny Gerlach'!D12</f>
+        <v>c</v>
+      </c>
+      <c r="F68" s="21" t="str">
+        <f>'Benny Gerlach'!E12</f>
+        <v>d</v>
+      </c>
+      <c r="G68" s="21">
+        <f>'Benny Gerlach'!F12</f>
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="20">
+      <c r="B69" s="24" t="str">
+        <f>'Benny Gerlach'!A13</f>
+        <v>Meeting: Aufgabenverteilung, Struktur</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="21" t="str">
+        <f>'Benny Gerlach'!D13</f>
+        <v>d</v>
+      </c>
+      <c r="F69" s="21" t="str">
+        <f>'Benny Gerlach'!E13</f>
+        <v>c</v>
+      </c>
+      <c r="G69" s="21">
+        <f>'Benny Gerlach'!F13</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="20">
+      <c r="B70" s="24" t="str">
+        <f>'Benny Gerlach'!A14</f>
+        <v>Projektzielsetzung</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="21" t="str">
+        <f>'Benny Gerlach'!D14</f>
+        <v>b</v>
+      </c>
+      <c r="F70" s="21" t="str">
+        <f>'Benny Gerlach'!E14</f>
+        <v>d</v>
+      </c>
+      <c r="G70" s="21">
+        <f>'Benny Gerlach'!F14</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="20">
+      <c r="B71" s="24" t="str">
+        <f>'Benny Gerlach'!A15</f>
+        <v>Absprache+Einrichtung Tools</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="21" t="str">
+        <f>'Benny Gerlach'!D15</f>
+        <v>c</v>
+      </c>
+      <c r="F71" s="21" t="str">
+        <f>'Benny Gerlach'!E15</f>
+        <v>c</v>
+      </c>
+      <c r="G71" s="21">
+        <f>'Benny Gerlach'!F15</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="20">
+      <c r="B72" s="24" t="str">
+        <f>'Benny Gerlach'!A16</f>
+        <v>Erstellung Workload Diagramm</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="21" t="str">
+        <f>'Benny Gerlach'!D16</f>
+        <v>b</v>
+      </c>
+      <c r="F72" s="21" t="str">
+        <f>'Benny Gerlach'!E16</f>
+        <v>c</v>
+      </c>
+      <c r="G72" s="21">
+        <f>'Benny Gerlach'!F16</f>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="21">
+      <c r="B73" s="24">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="15">
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="21">
         <f>'Benny Gerlach'!E17</f>
         <v>0</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="21">
         <f>'Benny Gerlach'!F17</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="21">
+      <c r="B74" s="24">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="15">
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="21">
         <f>'Benny Gerlach'!E18</f>
         <v>0</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="21">
         <f>'Benny Gerlach'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="21">
+      <c r="B75" s="24">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="15">
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="21">
         <f>'Benny Gerlach'!E19</f>
         <v>0</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="21">
         <f>'Benny Gerlach'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="21">
+      <c r="B76" s="24">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="15">
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="21">
         <f>'Benny Gerlach'!E20</f>
         <v>0</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="21">
         <f>'Benny Gerlach'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="21">
+      <c r="B77" s="24">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="15">
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="21">
         <f>'Benny Gerlach'!E21</f>
         <v>0</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="21">
         <f>'Benny Gerlach'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="21">
+      <c r="B78" s="24">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="15">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="21">
         <f>'Benny Gerlach'!E22</f>
         <v>0</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="21">
         <f>'Benny Gerlach'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="21">
+      <c r="B79" s="24">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="15">
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="21">
         <f>'Benny Gerlach'!E23</f>
         <v>0</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="21">
         <f>'Benny Gerlach'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="21">
+      <c r="B80" s="24">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="15">
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="21">
         <f>'Benny Gerlach'!E24</f>
         <v>0</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="21">
         <f>'Benny Gerlach'!F24</f>
         <v>0</v>
       </c>
@@ -2753,24 +2804,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="25"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="26"/>
+      <c r="G83" s="27"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2782,241 +2833,261 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>9</v>
+      <c r="B85" s="41" t="str">
+        <f>'Lukas Niedergriese'!A12</f>
+        <v>Vorlesung</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="6" t="str">
+        <f>'Lukas Niedergriese'!D12</f>
+        <v>c</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f>'Lukas Niedergriese'!E12</f>
+        <v>c</v>
       </c>
       <c r="G85" s="6">
+        <f>'Lukas Niedergriese'!F12</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>9</v>
+      <c r="B86" s="41" t="str">
+        <f>'Lukas Niedergriese'!A13</f>
+        <v>GitHub erstellen und zur Nutzung vorbereiten</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="6" t="str">
+        <f>'Lukas Niedergriese'!D13</f>
+        <v>c</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f>'Lukas Niedergriese'!E13</f>
+        <v>c</v>
       </c>
       <c r="G86" s="6">
+        <f>'Lukas Niedergriese'!F13</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>9</v>
+      <c r="B87" s="41" t="str">
+        <f>'Lukas Niedergriese'!A14</f>
+        <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="6" t="str">
+        <f>'Lukas Niedergriese'!D14</f>
+        <v>c</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f>'Lukas Niedergriese'!E14</f>
+        <v>c</v>
       </c>
       <c r="G87" s="6">
+        <f>'Lukas Niedergriese'!F14</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>9</v>
+      <c r="B88" s="41" t="str">
+        <f>'Lukas Niedergriese'!A15</f>
+        <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="6" t="str">
+        <f>'Lukas Niedergriese'!D15</f>
+        <v>c</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f>'Lukas Niedergriese'!E15</f>
+        <v>c</v>
       </c>
       <c r="G88" s="6">
+        <f>'Lukas Niedergriese'!F15</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>9</v>
+      <c r="B89" s="41" t="str">
+        <f>'Lukas Niedergriese'!A16</f>
+        <v>Suche nach Tool für Projektmanagement</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="6" t="str">
+        <f>'Lukas Niedergriese'!D16</f>
+        <v>c</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f>'Lukas Niedergriese'!E16</f>
+        <v>c</v>
       </c>
       <c r="G89" s="6">
+        <f>'Lukas Niedergriese'!F16</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="21">
+      <c r="B90" s="41">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="15">
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F90" s="6">
         <f>'Lukas Niedergriese'!E17</f>
         <v>0</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="6">
         <f>'Lukas Niedergriese'!F17</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="21">
+      <c r="B91" s="41">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="15">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="6">
         <f>'Lukas Niedergriese'!E18</f>
         <v>0</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="6">
         <f>'Lukas Niedergriese'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="21">
+      <c r="B92" s="41">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="15">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92" s="6">
         <f>'Lukas Niedergriese'!E19</f>
         <v>0</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="6">
         <f>'Lukas Niedergriese'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="21">
+      <c r="B93" s="41">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="15">
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="6">
         <f>'Lukas Niedergriese'!E20</f>
         <v>0</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="6">
         <f>'Lukas Niedergriese'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="21">
+      <c r="B94" s="41">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="15">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F94" s="6">
         <f>'Lukas Niedergriese'!E21</f>
         <v>0</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="6">
         <f>'Lukas Niedergriese'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="21">
+      <c r="B95" s="41">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="15">
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="6">
         <f>'Lukas Niedergriese'!E22</f>
         <v>0</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="6">
         <f>'Lukas Niedergriese'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="21">
+      <c r="B96" s="41">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="15">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="6">
         <f>'Lukas Niedergriese'!E23</f>
         <v>0</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="6">
         <f>'Lukas Niedergriese'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="21">
+      <c r="B97" s="41">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="15">
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="6">
         <f>'Lukas Niedergriese'!E24</f>
         <v>0</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="6">
         <f>'Lukas Niedergriese'!F24</f>
         <v>0</v>
       </c>
@@ -3026,24 +3097,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="25"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="26"/>
+      <c r="G99" s="27"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3055,12 +3126,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="21" t="str">
+      <c r="B101" s="24" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Erstes Gruppenmeeting: Aufgaben verteilen, Überblick verschaffen</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3075,12 +3146,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="str">
+      <c r="B102" s="24" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3095,12 +3166,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="21" t="str">
+      <c r="B103" s="24" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3115,12 +3186,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="21" t="str">
+      <c r="B104" s="24" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3135,12 +3206,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="21" t="str">
+      <c r="B105" s="24" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3155,12 +3226,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="21" t="str">
+      <c r="B106" s="24" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3175,12 +3246,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="21">
+      <c r="B107" s="24">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3195,12 +3266,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="21">
+      <c r="B108" s="24">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3215,12 +3286,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="21">
+      <c r="B109" s="24">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3235,12 +3306,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="21">
+      <c r="B110" s="24">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3255,12 +3326,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="21">
+      <c r="B111" s="24">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3275,12 +3346,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="21">
+      <c r="B112" s="24">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3295,12 +3366,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="21">
+      <c r="B113" s="24">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3316,29 +3387,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3363,83 +3488,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3451,7 +3522,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3465,35 +3536,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3509,10 +3580,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3525,52 +3596,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3583,229 +3654,293 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="10" t="e">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>1.6</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3818,30 +3953,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3877,35 +3988,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3921,10 +4032,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3937,52 +4048,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3995,11 +4106,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4011,11 +4122,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4027,11 +4138,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4043,11 +4154,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4059,139 +4170,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4201,11 +4312,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4213,11 +4324,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4227,22 +4338,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4250,6 +4361,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4262,30 +4397,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4321,35 +4432,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4365,10 +4476,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4381,52 +4492,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4439,11 +4550,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4458,11 +4569,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -4474,11 +4585,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4490,11 +4601,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4506,139 +4617,139 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4648,11 +4759,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4660,11 +4771,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
@@ -4674,22 +4785,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4697,6 +4808,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4709,30 +4844,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4754,7 +4865,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4768,35 +4879,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4812,10 +4923,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4828,52 +4939,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4886,229 +4997,293 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="10" t="e">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
-        <v>Nein!</v>
+        <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5121,30 +5296,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5180,35 +5331,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5224,10 +5375,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5240,52 +5391,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5298,11 +5449,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5314,11 +5465,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5330,11 +5481,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5346,11 +5497,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5362,11 +5513,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
@@ -5374,131 +5525,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>13.5</v>
@@ -5508,11 +5659,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -5520,11 +5671,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.7</v>
@@ -5534,22 +5685,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>3.5</v>
@@ -5557,6 +5708,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5569,30 +5744,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5614,7 +5765,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5628,35 +5779,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5672,10 +5823,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5688,52 +5839,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5746,11 +5897,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5762,11 +5913,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -5778,11 +5929,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5794,11 +5945,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5810,11 +5961,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -5826,11 +5977,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
@@ -5842,123 +5993,123 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>15</v>
@@ -5968,11 +6119,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>6</v>
@@ -5980,11 +6131,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.5</v>
@@ -5994,22 +6145,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>5</v>
@@ -6017,6 +6168,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6029,30 +6204,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E543A-031A-4177-B2D3-11380014A480}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -272,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,20 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,6 +501,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,9 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,7 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1008,48 +1009,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:D87"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+    <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1058,7 +1059,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1067,7 +1068,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1079,17 +1080,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1099,11 +1100,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="30" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1119,7 +1120,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,11 +1133,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="30" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1147,18 +1148,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="30" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1169,22 +1170,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="30" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1195,7 +1196,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1208,11 +1209,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="30" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1223,7 +1224,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1233,11 +1234,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="30" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1248,11 +1249,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="22" t="s">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1269,7 +1270,7 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1292,12 +1293,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1315,13 +1316,13 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="str">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1334,23 +1335,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="str">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1363,11 +1364,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I16" s="30" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>13.5</v>
@@ -1383,13 +1384,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="str">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1402,11 +1403,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="30" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1418,13 +1419,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="str">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1437,11 +1438,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>3</v>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="30" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1453,13 +1454,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="str">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="str">
         <f>'Erik Hennig'!A16</f>
         <v>Organisation</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1472,11 +1473,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="30" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>11</v>
@@ -1488,13 +1489,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="22">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1507,11 +1508,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="22" t="str">
+      <c r="I20" s="30" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>8</v>
@@ -1523,13 +1524,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1542,11 +1543,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="30" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>15</v>
@@ -1558,13 +1559,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="22">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1577,10 +1578,10 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
         <v>63.5</v>
@@ -1596,13 +1597,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1623,13 +1624,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="22">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1650,13 +1651,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1669,23 +1670,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1698,11 +1699,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="30" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>13.5</v>
@@ -1719,13 +1720,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="22">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1738,11 +1739,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="22" t="str">
+      <c r="I27" s="30" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1754,13 +1755,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="22">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1773,11 +1774,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="30" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1789,13 +1790,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="22">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1808,11 +1809,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="30" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1824,12 +1825,12 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="22" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="30" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1841,12 +1842,12 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="22" t="str">
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="30" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1858,7 +1859,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1873,10 +1874,10 @@
         <v>40</v>
       </c>
       <c r="G32" s="27"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
         <v>63.5</v>
@@ -1893,12 +1894,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1916,13 +1917,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="str">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1943,13 +1944,13 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="str">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="15" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
@@ -1970,13 +1971,13 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="str">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="15" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
@@ -1997,13 +1998,13 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="str">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="15" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
@@ -2017,13 +2018,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="24">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="22">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="15">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2037,13 +2038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="24">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="22">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="15">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2057,13 +2058,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="24">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="22">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="15">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2077,13 +2078,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="24">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="22">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="15">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2097,13 +2098,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="24">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="22">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="15">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2117,13 +2118,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="24">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="22">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="15">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2137,13 +2138,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="24">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="22">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="15">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2157,13 +2158,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="24">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="22">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="15">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2177,13 +2178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="24">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="22">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="15">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2197,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2205,8 +2206,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
@@ -2222,12 +2223,12 @@
       </c>
       <c r="G49" s="27"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="28" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2238,13 +2239,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="24" t="str">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2258,13 +2259,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="str">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>d</v>
@@ -2278,13 +2279,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="24" t="str">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>b</v>
@@ -2298,13 +2299,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="24" t="str">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="str">
         <f>'Achim Groß'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>c</v>
@@ -2318,13 +2319,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="24">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="22">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2338,13 +2339,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="24">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="22">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2358,13 +2359,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="24">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="22">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2378,13 +2379,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="24">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="22">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2398,13 +2399,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="24">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="22">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2418,13 +2419,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="24">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="22">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2438,13 +2439,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="24">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="22">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2458,13 +2459,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="24">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="22">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2478,13 +2479,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="24">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="22">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2506,8 +2507,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
@@ -2523,12 +2524,12 @@
       </c>
       <c r="G66" s="27"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="28" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2539,13 +2540,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="24" t="str">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2559,13 +2560,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="24" t="str">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Meeting: Aufgabenverteilung, Struktur</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>d</v>
@@ -2579,13 +2580,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="24" t="str">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="str">
         <f>'Benny Gerlach'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
         <v>b</v>
@@ -2599,13 +2600,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="24" t="str">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="str">
         <f>'Benny Gerlach'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="21" t="str">
         <f>'Benny Gerlach'!D15</f>
         <v>c</v>
@@ -2619,13 +2620,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="24" t="str">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="str">
         <f>'Benny Gerlach'!A16</f>
         <v>Erstellung Workload Diagramm</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="21" t="str">
         <f>'Benny Gerlach'!D16</f>
         <v>b</v>
@@ -2639,13 +2640,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="24">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="22">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2659,13 +2660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="24">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="22">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2679,13 +2680,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="24">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="22">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2699,13 +2700,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="24">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="22">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2719,13 +2720,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="24">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="22">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2739,13 +2740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="24">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="22">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2759,13 +2760,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="24">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="22">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2779,13 +2780,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="24">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="22">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2799,8 +2800,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
@@ -2816,12 +2817,12 @@
       </c>
       <c r="G83" s="27"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="28" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2832,13 +2833,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="41" t="str">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="28" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Vorlesung</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2852,13 +2853,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="41" t="str">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="28" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>GitHub erstellen und zur Nutzung vorbereiten</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2872,13 +2873,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="41" t="str">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2892,13 +2893,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="41" t="str">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="28" t="str">
         <f>'Lukas Niedergriese'!A15</f>
         <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6" t="str">
         <f>'Lukas Niedergriese'!D15</f>
         <v>c</v>
@@ -2912,13 +2913,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="41" t="str">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="28" t="str">
         <f>'Lukas Niedergriese'!A16</f>
         <v>Suche nach Tool für Projektmanagement</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6" t="str">
         <f>'Lukas Niedergriese'!D16</f>
         <v>c</v>
@@ -2932,13 +2933,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="41">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="28">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2952,13 +2953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="41">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="28">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2972,13 +2973,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="41">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="28">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2992,13 +2993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="41">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="28">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -3012,13 +3013,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="41">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="28">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3032,13 +3033,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="41">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="28">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3052,13 +3053,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="41">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="28">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3072,13 +3073,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="41">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="28">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3092,8 +3093,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
@@ -3109,12 +3110,12 @@
       </c>
       <c r="G99" s="27"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="28" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3125,13 +3126,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="24" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Erstes Gruppenmeeting: Aufgaben verteilen, Überblick verschaffen</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3145,13 +3146,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="24" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3165,13 +3166,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="24" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3185,13 +3186,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="24" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="22" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3205,13 +3206,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="24" t="str">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="22" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3225,13 +3226,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="24" t="str">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="22" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3245,13 +3246,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="24">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="22">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3265,13 +3266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="24">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="22">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3285,13 +3286,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="24">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="22">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3305,13 +3306,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="24">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="22">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3325,13 +3326,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="24">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="22">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3345,13 +3346,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="24">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="22">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3365,13 +3366,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="24">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="22">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3386,27 +3387,88 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="99pn97YjHSQo8fvBiR8/GnGj60f49LSVmD79hmB+EEx8qnW4gCcXqr2aHWkWnKXafLnVzDaFKMygH2YFmV0QwA==" saltValue="1cAmtGSjxy+YKDtWyseXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3431,86 +3493,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3518,55 +3520,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3580,12 +3582,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3596,52 +3598,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3653,12 +3655,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3669,12 +3671,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3685,12 +3687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3701,12 +3703,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -3717,12 +3719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3733,132 +3735,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>8</v>
@@ -3867,24 +3869,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.6</v>
@@ -3893,23 +3895,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2</v>
@@ -3917,6 +3919,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3929,30 +3955,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3970,55 +3972,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4032,12 +4034,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4048,52 +4050,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4105,12 +4107,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4121,12 +4123,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4137,12 +4139,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4153,12 +4155,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4169,140 +4171,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4311,24 +4313,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4337,23 +4339,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4361,6 +4363,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4373,30 +4399,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4414,55 +4416,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4476,12 +4478,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4492,52 +4494,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4549,12 +4551,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4568,12 +4570,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -4584,12 +4586,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4600,12 +4602,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4616,140 +4618,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4758,24 +4760,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
@@ -4784,23 +4786,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4808,6 +4810,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4820,30 +4846,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4861,55 +4863,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4923,12 +4925,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4939,52 +4941,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4996,12 +4998,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
@@ -5012,12 +5014,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5028,12 +5030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
@@ -5044,12 +5046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5060,12 +5062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
@@ -5076,132 +5078,132 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>11</v>
@@ -5210,24 +5212,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.2000000000000002</v>
@@ -5236,23 +5238,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>1</v>
@@ -5260,6 +5262,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5272,30 +5298,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5313,55 +5315,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5375,12 +5377,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5391,52 +5393,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5448,12 +5450,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5464,12 +5466,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5480,12 +5482,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5496,12 +5498,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5512,144 +5514,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>13.5</v>
@@ -5658,24 +5660,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.7</v>
@@ -5684,23 +5686,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>3.5</v>
@@ -5708,6 +5710,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5720,30 +5746,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5761,55 +5763,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5823,12 +5825,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5839,52 +5841,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="30"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5896,12 +5898,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5912,12 +5914,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -5928,12 +5930,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5944,12 +5946,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5960,12 +5962,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -5976,12 +5978,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
@@ -5992,124 +5994,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>15</v>
@@ -6118,24 +6120,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>6</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.5</v>
@@ -6144,23 +6146,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <f>D33-10</f>
         <v>5</v>
@@ -6168,6 +6170,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -6180,30 +6206,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E543A-031A-4177-B2D3-11380014A480}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="78">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -211,9 +210,6 @@
   </si>
   <si>
     <t>Terminplan erstellen</t>
-  </si>
-  <si>
-    <t>Organisation</t>
   </si>
   <si>
     <t>Meeting: Projektbeginn</t>
@@ -493,7 +489,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,26 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +520,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,24 +1029,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1080,12 +1076,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1100,11 +1096,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1133,11 +1129,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1155,11 +1151,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1171,21 +1167,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="23"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1209,11 +1205,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1234,11 +1230,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1250,10 +1246,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1274,17 +1270,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1294,11 +1290,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1317,12 +1313,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="24" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1335,23 +1331,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="24" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1364,11 +1360,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>13.5</v>
@@ -1385,12 +1381,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="24" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1403,11 +1399,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1420,12 +1416,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="24" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1436,13 +1432,13 @@
       </c>
       <c r="G18" s="15">
         <f>'Erik Hennig'!F15</f>
-        <v>3</v>
-      </c>
-      <c r="I18" s="30" t="str">
+        <v>4</v>
+      </c>
+      <c r="I18" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1455,12 +1451,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="24">
         <f>'Erik Hennig'!A16</f>
-        <v>Organisation</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1471,13 +1467,13 @@
       </c>
       <c r="G19" s="15">
         <f>'Erik Hennig'!F16</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>11</v>
@@ -1490,12 +1486,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="22">
+      <c r="B20" s="24">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1508,11 +1504,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>8</v>
@@ -1525,12 +1521,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
+      <c r="B21" s="24">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1543,11 +1539,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>15</v>
@@ -1560,12 +1556,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="22">
+      <c r="B22" s="24">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1578,10 +1574,10 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
         <v>63.5</v>
@@ -1598,12 +1594,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="22">
+      <c r="B23" s="24">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1625,12 +1621,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="22">
+      <c r="B24" s="24">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1652,12 +1648,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="22">
+      <c r="B25" s="24">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1670,23 +1666,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="22">
+      <c r="B26" s="24">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1699,11 +1695,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="22" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>13.5</v>
@@ -1721,12 +1717,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="22">
+      <c r="B27" s="24">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1739,11 +1735,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="22" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1756,12 +1752,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="22">
+      <c r="B28" s="24">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1774,11 +1770,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="22" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1791,12 +1787,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="22">
+      <c r="B29" s="24">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1809,11 +1805,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="30" t="str">
+      <c r="I29" s="22" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1826,11 +1822,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="30" t="str">
+      <c r="I30" s="22" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="30"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1843,11 +1839,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="30" t="str">
+      <c r="I31" s="22" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="30"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1863,21 +1859,21 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="I32" s="30" t="s">
+      <c r="G32" s="28"/>
+      <c r="I32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="30"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
         <v>63.5</v>
@@ -1895,11 +1891,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1918,12 +1914,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="24" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1945,12 +1941,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="str">
+      <c r="B35" s="24" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="15" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
@@ -1972,12 +1968,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="24" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="15" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
@@ -1999,12 +1995,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="24" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="15" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
@@ -2019,12 +2015,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="22">
+      <c r="B38" s="24">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="15">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2039,12 +2035,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="22">
+      <c r="B39" s="24">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="15">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2059,12 +2055,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="22">
+      <c r="B40" s="24">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="15">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2079,12 +2075,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="22">
+      <c r="B41" s="24">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="15">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2099,12 +2095,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="22">
+      <c r="B42" s="24">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="15">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2119,12 +2115,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="22">
+      <c r="B43" s="24">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="15">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2139,12 +2135,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="22">
+      <c r="B44" s="24">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="15">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2159,12 +2155,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="22">
+      <c r="B45" s="24">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="15">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2179,12 +2175,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="22">
+      <c r="B46" s="24">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="15">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2211,24 +2207,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2240,12 +2236,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="24" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2260,12 +2256,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="str">
+      <c r="B52" s="24" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>d</v>
@@ -2280,12 +2276,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="24" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>b</v>
@@ -2300,12 +2296,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="24" t="str">
         <f>'Achim Groß'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>c</v>
@@ -2320,12 +2316,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="22">
+      <c r="B55" s="24">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2340,12 +2336,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="22">
+      <c r="B56" s="24">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2360,12 +2356,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="22">
+      <c r="B57" s="24">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2380,12 +2376,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="22">
+      <c r="B58" s="24">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2400,12 +2396,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="22">
+      <c r="B59" s="24">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2420,12 +2416,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="22">
+      <c r="B60" s="24">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2440,12 +2436,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="22">
+      <c r="B61" s="24">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2460,12 +2456,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="22">
+      <c r="B62" s="24">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2480,12 +2476,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="22">
+      <c r="B63" s="24">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2512,24 +2508,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="26"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2541,12 +2537,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="str">
+      <c r="B68" s="24" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2561,12 +2557,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="str">
+      <c r="B69" s="24" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Meeting: Aufgabenverteilung, Struktur</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>d</v>
@@ -2581,12 +2577,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="str">
+      <c r="B70" s="24" t="str">
         <f>'Benny Gerlach'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
         <v>b</v>
@@ -2601,12 +2597,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="str">
+      <c r="B71" s="24" t="str">
         <f>'Benny Gerlach'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="21" t="str">
         <f>'Benny Gerlach'!D15</f>
         <v>c</v>
@@ -2621,12 +2617,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="22" t="str">
+      <c r="B72" s="24" t="str">
         <f>'Benny Gerlach'!A16</f>
         <v>Erstellung Workload Diagramm</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="21" t="str">
         <f>'Benny Gerlach'!D16</f>
         <v>b</v>
@@ -2641,12 +2637,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="22">
+      <c r="B73" s="24">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2661,12 +2657,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="22">
+      <c r="B74" s="24">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2681,12 +2677,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="22">
+      <c r="B75" s="24">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2701,12 +2697,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="22">
+      <c r="B76" s="24">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2721,12 +2717,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="22">
+      <c r="B77" s="24">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2741,12 +2737,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
+      <c r="B78" s="24">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2761,12 +2757,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="22">
+      <c r="B79" s="24">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2781,12 +2777,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="22">
+      <c r="B80" s="24">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2805,24 +2801,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="26"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="27"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2834,12 +2830,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="28" t="str">
+      <c r="B85" s="25" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Vorlesung</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2854,12 +2850,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="28" t="str">
+      <c r="B86" s="25" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>GitHub erstellen und zur Nutzung vorbereiten</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2874,12 +2870,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="28" t="str">
+      <c r="B87" s="25" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2894,12 +2890,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="28" t="str">
+      <c r="B88" s="25" t="str">
         <f>'Lukas Niedergriese'!A15</f>
         <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="6" t="str">
         <f>'Lukas Niedergriese'!D15</f>
         <v>c</v>
@@ -2914,12 +2910,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="28" t="str">
+      <c r="B89" s="25" t="str">
         <f>'Lukas Niedergriese'!A16</f>
         <v>Suche nach Tool für Projektmanagement</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="6" t="str">
         <f>'Lukas Niedergriese'!D16</f>
         <v>c</v>
@@ -2934,12 +2930,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="28">
+      <c r="B90" s="25">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2954,12 +2950,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="28">
+      <c r="B91" s="25">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2974,12 +2970,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="28">
+      <c r="B92" s="25">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2994,12 +2990,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="28">
+      <c r="B93" s="25">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -3014,12 +3010,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="28">
+      <c r="B94" s="25">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3034,12 +3030,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="28">
+      <c r="B95" s="25">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3054,12 +3050,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="28">
+      <c r="B96" s="25">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3074,12 +3070,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="28">
+      <c r="B97" s="25">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3098,24 +3094,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="26"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="27"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3127,12 +3123,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="str">
+      <c r="B101" s="24" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Erstes Gruppenmeeting: Aufgaben verteilen, Überblick verschaffen</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3147,12 +3143,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="str">
+      <c r="B102" s="24" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3167,12 +3163,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="str">
+      <c r="B103" s="24" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3187,12 +3183,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="22" t="str">
+      <c r="B104" s="24" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3207,12 +3203,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="22" t="str">
+      <c r="B105" s="24" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3227,12 +3223,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="22" t="str">
+      <c r="B106" s="24" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3247,12 +3243,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="22">
+      <c r="B107" s="24">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3267,12 +3263,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="22">
+      <c r="B108" s="24">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3287,12 +3283,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="22">
+      <c r="B109" s="24">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3307,12 +3303,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="22">
+      <c r="B110" s="24">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3327,12 +3323,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="22">
+      <c r="B111" s="24">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3347,12 +3343,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="22">
+      <c r="B112" s="24">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3367,12 +3363,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="22">
+      <c r="B113" s="24">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3389,29 +3385,83 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="99pn97YjHSQo8fvBiR8/GnGj60f49LSVmD79hmB+EEx8qnW4gCcXqr2aHWkWnKXafLnVzDaFKMygH2YFmV0QwA==" saltValue="1cAmtGSjxy+YKDtWyseXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3436,83 +3486,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3538,35 +3534,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3582,10 +3578,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3598,52 +3594,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3656,11 +3652,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3672,11 +3668,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3688,11 +3684,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3704,11 +3700,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -3720,11 +3716,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3736,131 +3732,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>8</v>
@@ -3870,11 +3866,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -3882,11 +3878,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.6</v>
@@ -3896,22 +3892,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2</v>
@@ -3919,6 +3915,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3931,30 +3951,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3990,35 +3986,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4034,10 +4030,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4050,52 +4046,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4108,11 +4104,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4124,11 +4120,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4140,11 +4136,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4156,11 +4152,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4172,139 +4168,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4314,11 +4310,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4326,11 +4322,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4340,22 +4336,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4363,6 +4359,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4375,30 +4395,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4434,35 +4430,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4478,10 +4474,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4494,52 +4490,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4552,11 +4548,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4567,12 +4563,12 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -4588,7 +4584,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -4603,11 +4599,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4619,139 +4615,139 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4761,11 +4757,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4773,11 +4769,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
@@ -4787,22 +4783,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4810,6 +4806,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4822,30 +4842,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4881,35 +4877,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4925,10 +4921,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4941,52 +4937,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4999,11 +4995,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
@@ -5015,11 +5011,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5031,11 +5027,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
@@ -5047,11 +5043,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5063,11 +5059,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
@@ -5079,131 +5075,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>11</v>
@@ -5213,11 +5209,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -5225,11 +5221,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.2000000000000002</v>
@@ -5239,22 +5235,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>1</v>
@@ -5262,6 +5258,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5274,30 +5294,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5318,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,35 +5329,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5377,10 +5373,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5393,52 +5389,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5451,11 +5447,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5467,11 +5463,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5483,11 +5479,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5499,11 +5495,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5511,147 +5507,143 @@
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>13.5</v>
@@ -5661,48 +5653,48 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>2.7</v>
+        <v>3.375</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>3.5</v>
@@ -5710,6 +5702,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5722,30 +5738,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5781,35 +5773,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5825,10 +5817,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5841,52 +5833,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5980,7 +5972,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
@@ -5995,123 +5987,123 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>15</v>
@@ -6121,11 +6113,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>6</v>
@@ -6133,11 +6125,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.5</v>
@@ -6147,22 +6139,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37">
         <f>D33-10</f>
         <v>5</v>
@@ -6170,6 +6162,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6182,30 +6198,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="79">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Erfasser/Autor:</t>
   </si>
   <si>
-    <t>Erstes Gruppenmeeting: Aufgaben verteilen, Überblick verschaffen</t>
-  </si>
-  <si>
     <t>Risikoanalyse erstellen</t>
   </si>
   <si>
@@ -264,12 +261,18 @@
   </si>
   <si>
     <t>Erstellung Workload Diagramm</t>
+  </si>
+  <si>
+    <t>Meeting: Besprechung der Themen</t>
+  </si>
+  <si>
+    <t>Erstes Gruppenmeeting / Vorlesung: Überblick verschaffen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,21 +492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +503,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,48 +1011,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1055,7 +1061,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1064,7 +1070,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1076,17 +1082,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1096,11 +1102,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="31" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1116,7 +1122,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1129,11 +1135,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="31" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1144,18 +1150,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="31" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1166,22 +1172,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="31" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1192,7 +1198,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1205,11 +1211,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="31" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1220,7 +1226,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1230,11 +1236,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="31" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1245,11 +1251,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="22" t="s">
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1266,7 +1272,7 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1289,12 +1295,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1312,13 +1318,13 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="str">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1331,23 +1337,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="str">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1360,11 +1366,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I16" s="31" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>13.5</v>
@@ -1380,13 +1386,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="str">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1399,11 +1405,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="31" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1415,13 +1421,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="str">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1434,11 +1440,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>4</v>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="31" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1450,13 +1456,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="23">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1469,11 +1475,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="31" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>11</v>
@@ -1485,13 +1491,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="23">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1504,11 +1510,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="22" t="str">
+      <c r="I20" s="31" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>8</v>
@@ -1520,13 +1526,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="23">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1539,14 +1545,14 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="31" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1555,13 +1561,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="23">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1574,13 +1580,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1593,13 +1599,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="23">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1620,13 +1626,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="23">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1647,13 +1653,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1666,23 +1672,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="23">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1695,11 +1701,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="31" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>13.5</v>
@@ -1716,13 +1722,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="23">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1735,11 +1741,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="22" t="str">
+      <c r="I27" s="31" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1751,13 +1757,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="23">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1770,11 +1776,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="31" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1786,13 +1792,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="23">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1805,11 +1811,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="31" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1821,12 +1827,12 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="22" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I30" s="31" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="31"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1838,15 +1844,15 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="22" t="str">
+    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="31" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1855,7 +1861,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1870,13 +1876,13 @@
         <v>40</v>
       </c>
       <c r="G32" s="28"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1890,12 +1896,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1913,13 +1919,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="str">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1940,13 +1946,13 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="str">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="15" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
@@ -1967,13 +1973,13 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="str">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="15" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
@@ -1994,13 +2000,13 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="str">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="15" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
@@ -2014,13 +2020,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="24">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="23">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="15">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2034,13 +2040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="24">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="23">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="15">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2054,13 +2060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="23">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="15">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2074,13 +2080,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="24">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="23">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="15">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2094,13 +2100,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="24">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="23">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="15">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2114,13 +2120,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="24">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="23">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="15">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2134,13 +2140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="24">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="23">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="15">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2154,13 +2160,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="24">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="23">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="15">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2174,13 +2180,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="24">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="23">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="15">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2202,8 +2208,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
@@ -2219,12 +2225,12 @@
       </c>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2235,13 +2241,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="str">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="23" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2255,13 +2261,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="24" t="str">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="23" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>d</v>
@@ -2275,13 +2281,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="24" t="str">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="23" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>b</v>
@@ -2295,13 +2301,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="24" t="str">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="23" t="str">
         <f>'Achim Groß'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>c</v>
@@ -2315,13 +2321,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="24">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="23">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2335,13 +2341,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="24">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="23">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2355,13 +2361,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="24">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="23">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2375,13 +2381,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="24">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="23">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2395,13 +2401,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="24">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="23">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2415,13 +2421,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="24">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="23">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2435,13 +2441,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="24">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="23">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2455,13 +2461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="24">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="23">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2475,13 +2481,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="24">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="23">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2503,8 +2509,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
@@ -2520,12 +2526,12 @@
       </c>
       <c r="G66" s="28"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2536,13 +2542,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="str">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="23" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2556,13 +2562,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="24" t="str">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="23" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Meeting: Aufgabenverteilung, Struktur</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>d</v>
@@ -2576,13 +2582,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="24" t="str">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="23" t="str">
         <f>'Benny Gerlach'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
         <v>b</v>
@@ -2596,13 +2602,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="24" t="str">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="23" t="str">
         <f>'Benny Gerlach'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="21" t="str">
         <f>'Benny Gerlach'!D15</f>
         <v>c</v>
@@ -2616,13 +2622,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="str">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="23" t="str">
         <f>'Benny Gerlach'!A16</f>
         <v>Erstellung Workload Diagramm</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="21" t="str">
         <f>'Benny Gerlach'!D16</f>
         <v>b</v>
@@ -2636,13 +2642,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="24">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="23">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2656,13 +2662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="24">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="23">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2676,13 +2682,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="24">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="23">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2696,13 +2702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="24">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="23">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2716,13 +2722,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="24">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="23">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2736,13 +2742,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="24">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="23">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2756,13 +2762,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="24">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="23">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2776,13 +2782,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="24">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="23">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2796,8 +2802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
@@ -2813,12 +2819,12 @@
       </c>
       <c r="G83" s="28"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="29" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2829,13 +2835,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="25" t="str">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Vorlesung</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2849,13 +2855,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="25" t="str">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>GitHub erstellen und zur Nutzung vorbereiten</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2869,13 +2875,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="25" t="str">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2889,13 +2895,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="25" t="str">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="str">
         <f>'Lukas Niedergriese'!A15</f>
         <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="6" t="str">
         <f>'Lukas Niedergriese'!D15</f>
         <v>c</v>
@@ -2909,13 +2915,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="25" t="str">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="29" t="str">
         <f>'Lukas Niedergriese'!A16</f>
         <v>Suche nach Tool für Projektmanagement</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="6" t="str">
         <f>'Lukas Niedergriese'!D16</f>
         <v>c</v>
@@ -2929,13 +2935,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="29">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2949,13 +2955,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="29">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2969,13 +2975,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="29">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2989,13 +2995,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="29">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -3009,13 +3015,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="29">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3029,13 +3035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="29">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3049,13 +3055,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="29">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3069,13 +3075,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="29">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3089,8 +3095,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
@@ -3106,12 +3112,12 @@
       </c>
       <c r="G99" s="28"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="29" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3122,13 +3128,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="24" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="23" t="str">
         <f>'Tobias Reis'!A12</f>
-        <v>Erstes Gruppenmeeting: Aufgaben verteilen, Überblick verschaffen</v>
-      </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+        <v>Erstes Gruppenmeeting / Vorlesung: Überblick verschaffen</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3142,13 +3148,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="24" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="23" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3162,13 +3168,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="24" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="23" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3182,13 +3188,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="24" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="23" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3202,13 +3208,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="24" t="str">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="23" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3222,13 +3228,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="24" t="str">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="23" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3242,33 +3248,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="24">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="23" t="str">
         <f>'Tobias Reis'!A18</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="15">
+        <v>Meeting: Besprechung der Themen</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="15" t="str">
         <f>'Tobias Reis'!D18</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="15">
+        <v>d</v>
+      </c>
+      <c r="F107" s="15" t="str">
         <f>'Tobias Reis'!E18</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G107" s="15">
         <f>'Tobias Reis'!F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="23">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3282,13 +3288,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="24">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="23">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3302,13 +3308,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="24">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="23">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3322,13 +3328,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="24">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="23">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3342,13 +3348,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="24">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="23">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3362,13 +3368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="24">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="23">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3385,26 +3391,86 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="99pn97YjHSQo8fvBiR8/GnGj60f49LSVmD79hmB+EEx8qnW4gCcXqr2aHWkWnKXafLnVzDaFKMygH2YFmV0QwA==" saltValue="1cAmtGSjxy+YKDtWyseXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3429,86 +3495,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3516,55 +3522,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3578,12 +3584,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3594,52 +3600,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3651,12 +3657,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3667,12 +3673,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3683,12 +3689,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3699,12 +3705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -3715,12 +3721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3731,132 +3737,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>8</v>
@@ -3865,49 +3871,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.6</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2</v>
@@ -3915,6 +3921,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3927,30 +3957,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3968,55 +3974,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4030,12 +4036,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4046,52 +4052,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4103,12 +4109,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4119,12 +4125,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4135,12 +4141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4151,12 +4157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4167,140 +4173,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4309,49 +4315,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4359,6 +4365,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4371,30 +4401,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4412,55 +4418,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4474,12 +4480,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4490,52 +4496,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4547,12 +4553,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4563,15 +4569,15 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -4582,12 +4588,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4598,12 +4604,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4614,140 +4620,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4756,49 +4762,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4806,6 +4812,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4818,30 +4848,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4859,55 +4865,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4921,12 +4927,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4937,52 +4943,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4994,12 +5000,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
@@ -5010,12 +5016,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5026,12 +5032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
@@ -5042,12 +5048,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5058,12 +5064,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
@@ -5074,132 +5080,132 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>11</v>
@@ -5208,49 +5214,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
         <v>1</v>
@@ -5258,6 +5264,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5270,30 +5300,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5311,55 +5317,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5373,12 +5379,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5389,52 +5395,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5446,12 +5452,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5462,12 +5468,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5478,12 +5484,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5494,12 +5500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5510,140 +5516,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>13.5</v>
@@ -5652,49 +5658,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>3.375</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
         <v>3.5</v>
@@ -5702,6 +5708,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5714,30 +5744,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5755,55 +5761,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5817,12 +5823,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5833,52 +5839,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5890,278 +5896,310 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="6" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="6" t="s">
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="F18" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>2.5</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -6174,30 +6212,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -495,7 +495,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,26 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView showZeros="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,24 +1035,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1082,12 +1082,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1102,11 +1102,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31" t="str">
+      <c r="I6" s="23" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="31" t="str">
+      <c r="I7" s="23" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1157,11 +1157,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="31" t="str">
+      <c r="I8" s="23" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1173,21 +1173,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="31" t="str">
+      <c r="I9" s="23" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="31"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1211,11 +1211,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="31" t="str">
+      <c r="I10" s="23" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="31" t="str">
+      <c r="I11" s="23" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1276,17 +1276,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1296,11 +1296,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1319,12 +1319,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="25" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1337,23 +1337,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="str">
+      <c r="B16" s="25" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1366,11 +1366,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="31" t="str">
+      <c r="I16" s="23" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>13.5</v>
@@ -1387,12 +1387,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="25" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1405,11 +1405,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="31" t="str">
+      <c r="I17" s="23" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1422,12 +1422,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="25" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1440,11 +1440,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>4</v>
       </c>
-      <c r="I18" s="31" t="str">
+      <c r="I18" s="23" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1457,12 +1457,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="25">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1475,11 +1475,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="31" t="str">
+      <c r="I19" s="23" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>11</v>
@@ -1492,12 +1492,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="23">
+      <c r="B20" s="25">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1510,11 +1510,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="31" t="str">
+      <c r="I20" s="23" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>8</v>
@@ -1527,12 +1527,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="23">
+      <c r="B21" s="25">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1545,14 +1545,14 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="31" t="str">
+      <c r="I21" s="23" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1562,12 +1562,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="23">
+      <c r="B22" s="25">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>65.5</v>
+        <v>62.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1600,12 +1600,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="23">
+      <c r="B23" s="25">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1627,12 +1627,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="23">
+      <c r="B24" s="25">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1654,12 +1654,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="23">
+      <c r="B25" s="25">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1672,23 +1672,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="23">
+      <c r="B26" s="25">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1701,11 +1701,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="31" t="str">
+      <c r="I26" s="23" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>13.5</v>
@@ -1723,12 +1723,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="23">
+      <c r="B27" s="25">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1741,11 +1741,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="31" t="str">
+      <c r="I27" s="23" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1758,12 +1758,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="23">
+      <c r="B28" s="25">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1776,11 +1776,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="31" t="str">
+      <c r="I28" s="23" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="31"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1793,12 +1793,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="23">
+      <c r="B29" s="25">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1811,11 +1811,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="31" t="str">
+      <c r="I29" s="23" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="31"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1828,11 +1828,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="31" t="str">
+      <c r="I30" s="23" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1845,14 +1845,14 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="31" t="str">
+      <c r="I31" s="23" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="31"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1865,24 +1865,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="I32" s="31" t="s">
+      <c r="G32" s="29"/>
+      <c r="I32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="31"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>65.5</v>
+        <v>62.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1897,11 +1897,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1920,12 +1920,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="25" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1947,12 +1947,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="str">
+      <c r="B35" s="25" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="15" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
@@ -1974,12 +1974,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="25" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="15" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
@@ -2001,12 +2001,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="25" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="15" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
@@ -2021,12 +2021,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="23">
+      <c r="B38" s="25">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="15">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2041,12 +2041,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="23">
+      <c r="B39" s="25">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="15">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2061,12 +2061,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="23">
+      <c r="B40" s="25">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="15">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2081,12 +2081,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="23">
+      <c r="B41" s="25">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="15">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2101,12 +2101,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="23">
+      <c r="B42" s="25">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="15">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2121,12 +2121,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="23">
+      <c r="B43" s="25">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="15">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2141,12 +2141,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="23">
+      <c r="B44" s="25">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="15">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2161,12 +2161,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="23">
+      <c r="B45" s="25">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="15">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2181,12 +2181,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="23">
+      <c r="B46" s="25">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="15">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2213,24 +2213,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2242,12 +2242,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="25" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2262,12 +2262,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="str">
+      <c r="B52" s="25" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>d</v>
@@ -2282,12 +2282,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="25" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>b</v>
@@ -2302,12 +2302,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="25" t="str">
         <f>'Achim Groß'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>c</v>
@@ -2322,12 +2322,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="23">
+      <c r="B55" s="25">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2342,12 +2342,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="23">
+      <c r="B56" s="25">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2362,12 +2362,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="23">
+      <c r="B57" s="25">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2382,12 +2382,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="23">
+      <c r="B58" s="25">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2402,12 +2402,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="23">
+      <c r="B59" s="25">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2422,12 +2422,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="23">
+      <c r="B60" s="25">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2442,12 +2442,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="23">
+      <c r="B61" s="25">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2462,12 +2462,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
+      <c r="B62" s="25">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2482,12 +2482,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="23">
+      <c r="B63" s="25">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2514,24 +2514,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2543,12 +2543,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="23" t="str">
+      <c r="B68" s="25" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2563,12 +2563,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="23" t="str">
+      <c r="B69" s="25" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Meeting: Aufgabenverteilung, Struktur</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>d</v>
@@ -2583,12 +2583,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="23" t="str">
+      <c r="B70" s="25" t="str">
         <f>'Benny Gerlach'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
         <v>b</v>
@@ -2603,12 +2603,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="23" t="str">
+      <c r="B71" s="25" t="str">
         <f>'Benny Gerlach'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="21" t="str">
         <f>'Benny Gerlach'!D15</f>
         <v>c</v>
@@ -2623,12 +2623,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="23" t="str">
+      <c r="B72" s="25" t="str">
         <f>'Benny Gerlach'!A16</f>
         <v>Erstellung Workload Diagramm</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="21" t="str">
         <f>'Benny Gerlach'!D16</f>
         <v>b</v>
@@ -2643,12 +2643,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="23">
+      <c r="B73" s="25">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2663,12 +2663,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="23">
+      <c r="B74" s="25">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2683,12 +2683,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="23">
+      <c r="B75" s="25">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2703,12 +2703,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="23">
+      <c r="B76" s="25">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2723,12 +2723,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="23">
+      <c r="B77" s="25">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2743,12 +2743,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="23">
+      <c r="B78" s="25">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2763,12 +2763,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="23">
+      <c r="B79" s="25">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2783,12 +2783,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="23">
+      <c r="B80" s="25">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2807,24 +2807,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="27"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2836,12 +2836,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="29" t="str">
+      <c r="B85" s="26" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Vorlesung</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2856,12 +2856,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="29" t="str">
+      <c r="B86" s="26" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>GitHub erstellen und zur Nutzung vorbereiten</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2876,12 +2876,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="str">
+      <c r="B87" s="26" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2896,12 +2896,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="29" t="str">
+      <c r="B88" s="26" t="str">
         <f>'Lukas Niedergriese'!A15</f>
         <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="6" t="str">
         <f>'Lukas Niedergriese'!D15</f>
         <v>c</v>
@@ -2916,12 +2916,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="29" t="str">
+      <c r="B89" s="26" t="str">
         <f>'Lukas Niedergriese'!A16</f>
         <v>Suche nach Tool für Projektmanagement</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="6" t="str">
         <f>'Lukas Niedergriese'!D16</f>
         <v>c</v>
@@ -2936,12 +2936,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="29">
+      <c r="B90" s="26">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2956,12 +2956,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="29">
+      <c r="B91" s="26">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2976,12 +2976,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="29">
+      <c r="B92" s="26">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2996,12 +2996,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="29">
+      <c r="B93" s="26">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -3016,12 +3016,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="29">
+      <c r="B94" s="26">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3036,12 +3036,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="29">
+      <c r="B95" s="26">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3056,12 +3056,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="29">
+      <c r="B96" s="26">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3076,12 +3076,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="29">
+      <c r="B97" s="26">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3100,24 +3100,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="27"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="27" t="s">
+      <c r="F99" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="28"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3129,12 +3129,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="23" t="str">
+      <c r="B101" s="25" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Erstes Gruppenmeeting / Vorlesung: Überblick verschaffen</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3149,12 +3149,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="23" t="str">
+      <c r="B102" s="25" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3169,12 +3169,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="23" t="str">
+      <c r="B103" s="25" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3189,12 +3189,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="23" t="str">
+      <c r="B104" s="25" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3205,16 +3205,16 @@
       </c>
       <c r="G104" s="15">
         <f>'Tobias Reis'!F15</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="23" t="str">
+      <c r="B105" s="25" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3229,12 +3229,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="23" t="str">
+      <c r="B106" s="25" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3249,12 +3249,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="23" t="str">
+      <c r="B107" s="25" t="str">
         <f>'Tobias Reis'!A18</f>
         <v>Meeting: Besprechung der Themen</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="15" t="str">
         <f>'Tobias Reis'!D18</f>
         <v>d</v>
@@ -3269,12 +3269,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="23">
+      <c r="B108" s="25">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3289,12 +3289,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="23">
+      <c r="B109" s="25">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3309,12 +3309,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="23">
+      <c r="B110" s="25">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3329,12 +3329,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="23">
+      <c r="B111" s="25">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3349,12 +3349,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="23">
+      <c r="B112" s="25">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3369,12 +3369,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="23">
+      <c r="B113" s="25">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3391,29 +3391,83 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="99pn97YjHSQo8fvBiR8/GnGj60f49LSVmD79hmB+EEx8qnW4gCcXqr2aHWkWnKXafLnVzDaFKMygH2YFmV0QwA==" saltValue="1cAmtGSjxy+YKDtWyseXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3438,83 +3492,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3540,35 +3540,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3584,10 +3584,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3600,52 +3600,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3658,11 +3658,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3674,11 +3674,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3690,11 +3690,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3706,11 +3706,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -3722,11 +3722,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3738,131 +3738,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>8</v>
@@ -3872,11 +3872,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -3884,11 +3884,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.6</v>
@@ -3898,22 +3898,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2</v>
@@ -3921,6 +3921,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3933,30 +3957,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3992,35 +3992,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4036,10 +4036,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4052,52 +4052,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4110,11 +4110,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4126,11 +4126,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4142,11 +4142,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4158,11 +4158,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4174,139 +4174,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4316,11 +4316,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4328,11 +4328,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4342,22 +4342,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4365,6 +4365,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4377,30 +4401,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4436,35 +4436,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4480,10 +4480,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4496,52 +4496,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4554,11 +4554,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4605,11 +4605,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4621,139 +4621,139 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4763,11 +4763,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4775,11 +4775,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
@@ -4789,22 +4789,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4812,6 +4812,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4824,30 +4848,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4883,35 +4883,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4927,10 +4927,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4943,52 +4943,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5001,11 +5001,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
@@ -5017,11 +5017,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5033,11 +5033,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
@@ -5049,11 +5049,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5065,11 +5065,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
@@ -5081,131 +5081,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>11</v>
@@ -5215,11 +5215,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -5227,11 +5227,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.2000000000000002</v>
@@ -5241,22 +5241,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
         <v>1</v>
@@ -5264,6 +5264,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5276,30 +5300,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5335,35 +5335,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5379,10 +5379,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5395,52 +5395,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5453,11 +5453,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5469,11 +5469,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5485,11 +5485,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5501,11 +5501,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5517,139 +5517,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>13.5</v>
@@ -5659,11 +5659,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5671,11 +5671,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>3.375</v>
@@ -5685,22 +5685,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
         <v>3.5</v>
@@ -5708,6 +5708,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5720,30 +5744,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5765,7 +5765,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5779,35 +5779,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5823,10 +5823,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5839,52 +5839,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -5993,11 +5993,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="22" t="s">
         <v>10</v>
       </c>
@@ -6009,129 +6009,129 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>7</v>
@@ -6139,43 +6139,67 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>2.4285714285714284</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6188,30 +6212,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW10.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achgross\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27880" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Erstes Gruppenmeeting / Vorlesung: Überblick verschaffen</t>
+  </si>
+  <si>
+    <t>Meeting: Aufgabenblatt 1</t>
+  </si>
+  <si>
+    <t>Aufwandsbericht</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -495,21 +501,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +512,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,12 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,7 +562,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1014,45 +1023,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1061,7 +1070,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1070,7 +1079,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1082,17 +1091,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1102,11 +1111,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="23" t="str">
+      <c r="I6" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="16">
         <v>0</v>
       </c>
@@ -1122,7 +1131,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1135,11 +1144,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="23" t="str">
+      <c r="I7" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="16">
         <v>0</v>
       </c>
@@ -1150,18 +1159,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="16">
         <v>0</v>
       </c>
@@ -1172,22 +1181,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="27"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="23" t="str">
+      <c r="I9" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
@@ -1198,7 +1207,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1211,11 +1220,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I10" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1236,11 +1245,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="23" t="str">
+      <c r="I11" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="16">
         <v>0</v>
       </c>
@@ -1251,11 +1260,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="23" t="s">
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>0</v>
@@ -1272,7 +1281,7 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1295,12 +1304,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1318,13 +1327,13 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="str">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Projektplan erstellen</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>b</v>
@@ -1337,23 +1346,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>5</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="str">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Meeting: Grundlagen Planung, Aufgabe kennenlernen</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>c</v>
@@ -1366,14 +1375,14 @@
         <f>'Erik Hennig'!F13</f>
         <v>3.5</v>
       </c>
-      <c r="I16" s="23" t="str">
+      <c r="I16" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>26</v>
@@ -1386,13 +1395,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="str">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Terminplan erstellen</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>c</v>
@@ -1405,11 +1414,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="23" t="str">
+      <c r="I17" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1421,13 +1430,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="str">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Allgemeine Organisation und Diskussionen</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1438,16 +1447,16 @@
       </c>
       <c r="G18" s="15">
         <f>'Erik Hennig'!F15</f>
-        <v>4</v>
-      </c>
-      <c r="I18" s="23" t="str">
+        <v>5</v>
+      </c>
+      <c r="I18" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>26</v>
@@ -1456,13 +1465,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="24">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1475,14 +1484,14 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="23" t="str">
+      <c r="I19" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>26</v>
@@ -1491,13 +1500,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="24">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1510,14 +1519,14 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="23" t="str">
+      <c r="I20" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>26</v>
@@ -1526,13 +1535,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="24">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1545,11 +1554,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>14</v>
@@ -1561,13 +1570,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="24">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1580,13 +1589,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1599,13 +1608,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="24">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1626,13 +1635,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="24">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1653,13 +1662,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="24">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1672,23 +1681,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="24">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1701,14 +1710,14 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="23" t="str">
+      <c r="I26" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>26</v>
@@ -1722,13 +1731,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="24">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1741,11 +1750,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="23" t="str">
+      <c r="I27" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1757,13 +1766,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="24">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1776,14 +1785,14 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="23" t="str">
+      <c r="I28" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>26</v>
@@ -1792,13 +1801,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="24">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1811,14 +1820,14 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="23" t="str">
+      <c r="I29" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="23"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>26</v>
@@ -1827,15 +1836,15 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="23" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I30" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="23"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>26</v>
@@ -1844,12 +1853,12 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="23" t="str">
+    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1861,7 +1870,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1876,13 +1885,13 @@
         <v>40</v>
       </c>
       <c r="G32" s="29"/>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="23"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1896,12 +1905,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1919,13 +1928,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="str">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="str">
         <f>'Marco Rempfer'!A12</f>
         <v>Initiales Kundengespräch</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="15" t="str">
         <f>'Marco Rempfer'!D12</f>
         <v>c</v>
@@ -1946,18 +1955,18 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="str">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="str">
         <f>'Marco Rempfer'!A13</f>
         <v>Erarbeitung der notwendigen Softwarekomponenten*</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="15" t="str">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="str">
         <f>'Marco Rempfer'!D13</f>
         <v>c</v>
       </c>
-      <c r="F35" s="15" t="str">
+      <c r="F35" s="23" t="str">
         <f>'Marco Rempfer'!E13</f>
         <v>c</v>
       </c>
@@ -1973,18 +1982,18 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="str">
-        <f>'Achim Groß'!A14</f>
-        <v>Projektzielsetzung</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="15" t="str">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="str">
+        <f>'Marco Rempfer'!A14</f>
+        <v>Recherche von Franworks und Tools*</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="str">
         <f>'Marco Rempfer'!D14</f>
         <v>c</v>
       </c>
-      <c r="F36" s="15" t="str">
+      <c r="F36" s="23" t="str">
         <f>'Marco Rempfer'!E14</f>
         <v>c</v>
       </c>
@@ -2000,18 +2009,18 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="str">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="str">
         <f>'Marco Rempfer'!A15</f>
         <v>Diskussionen</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="15" t="str">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="str">
         <f>'Marco Rempfer'!D15</f>
         <v>c</v>
       </c>
-      <c r="F37" s="15" t="str">
+      <c r="F37" s="23" t="str">
         <f>'Marco Rempfer'!E15</f>
         <v>c</v>
       </c>
@@ -2020,18 +2029,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="24">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="15">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="23">
         <f>'Marco Rempfer'!E16</f>
         <v>0</v>
       </c>
@@ -2040,18 +2049,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="24">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="15">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="23">
         <f>'Marco Rempfer'!E17</f>
         <v>0</v>
       </c>
@@ -2060,18 +2069,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B40" s="24">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="15">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="23">
         <f>'Marco Rempfer'!E18</f>
         <v>0</v>
       </c>
@@ -2080,18 +2089,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B41" s="24">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="15">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="23">
         <f>'Marco Rempfer'!E19</f>
         <v>0</v>
       </c>
@@ -2100,18 +2109,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="24">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="15">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="23">
         <f>'Marco Rempfer'!E20</f>
         <v>0</v>
       </c>
@@ -2120,18 +2129,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B43" s="24">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="15">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="23">
         <f>'Marco Rempfer'!E21</f>
         <v>0</v>
       </c>
@@ -2140,18 +2149,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="24">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="15">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="23">
         <f>'Marco Rempfer'!E22</f>
         <v>0</v>
       </c>
@@ -2160,18 +2169,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B45" s="24">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="15">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="23">
         <f>'Marco Rempfer'!E23</f>
         <v>0</v>
       </c>
@@ -2180,18 +2189,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="24">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="15">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="23">
         <f>'Marco Rempfer'!E24</f>
         <v>0</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2208,8 +2217,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
@@ -2225,12 +2234,12 @@
       </c>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2241,13 +2250,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="str">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="24" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2261,13 +2270,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="25" t="str">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="24" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Meeting: Aufgabenverteilung, Lösungsansatz</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>d</v>
@@ -2281,13 +2290,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="25" t="str">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="24" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>b</v>
@@ -2301,13 +2310,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="25" t="str">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="24" t="str">
         <f>'Achim Groß'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>c</v>
@@ -2321,53 +2330,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="24" t="str">
         <f>'Achim Groß'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="21">
+        <v>Meeting: Aufgabenblatt 1</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="21" t="str">
         <f>'Achim Groß'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="21">
+        <v>b</v>
+      </c>
+      <c r="F55" s="21" t="str">
         <f>'Achim Groß'!E16</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G55" s="21">
         <f>'Achim Groß'!F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="str">
         <f>'Achim Groß'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="21">
+        <v>Aufwandsbericht</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="21" t="str">
         <f>'Achim Groß'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="21">
+        <v>c</v>
+      </c>
+      <c r="F56" s="21" t="str">
         <f>'Achim Groß'!E17</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G56" s="21">
         <f>'Achim Groß'!F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="24">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2381,13 +2390,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="24">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2401,13 +2410,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="24">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2421,13 +2430,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="24">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2441,13 +2450,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="24">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2461,13 +2470,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="24">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2481,13 +2490,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="24">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2501,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2509,8 +2518,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
@@ -2526,12 +2535,12 @@
       </c>
       <c r="G66" s="29"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="30" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2542,13 +2551,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="25" t="str">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="24" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meeting: Projektbeginn</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2562,13 +2571,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="25" t="str">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="24" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Meeting: Aufgabenverteilung, Struktur</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>d</v>
@@ -2582,13 +2591,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="25" t="str">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="24" t="str">
         <f>'Benny Gerlach'!A14</f>
         <v>Projektzielsetzung</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
         <v>b</v>
@@ -2602,13 +2611,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="25" t="str">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="24" t="str">
         <f>'Benny Gerlach'!A15</f>
         <v>Absprache+Einrichtung Tools</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="21" t="str">
         <f>'Benny Gerlach'!D15</f>
         <v>c</v>
@@ -2622,13 +2631,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="25" t="str">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="24" t="str">
         <f>'Benny Gerlach'!A16</f>
         <v>Erstellung Workload Diagramm</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="21" t="str">
         <f>'Benny Gerlach'!D16</f>
         <v>b</v>
@@ -2642,33 +2651,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="24" t="str">
         <f>'Benny Gerlach'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="21">
+        <v>Meeting: Aufgabenblatt 1</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="21" t="str">
         <f>'Benny Gerlach'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
+        <v>b</v>
+      </c>
+      <c r="F73" s="21" t="str">
         <f>'Benny Gerlach'!E17</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G73" s="21">
         <f>'Benny Gerlach'!F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="24">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2682,13 +2691,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="24">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2702,13 +2711,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="24">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2722,13 +2731,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="24">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2742,13 +2751,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="24">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2762,13 +2771,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="24">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2782,13 +2791,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="24">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2802,8 +2811,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
@@ -2819,12 +2828,12 @@
       </c>
       <c r="G83" s="29"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2835,13 +2844,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="26" t="str">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="30" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Vorlesung</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2855,13 +2864,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="26" t="str">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="30" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>GitHub erstellen und zur Nutzung vorbereiten</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2875,13 +2884,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="26" t="str">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="30" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Erstellen eines Discord Servers und vorbereiten der Projektwebsite</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2895,13 +2904,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="26" t="str">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="30" t="str">
         <f>'Lukas Niedergriese'!A15</f>
         <v>Erstellen und vorbereiten des Webspace für Produktwebsite</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="6" t="str">
         <f>'Lukas Niedergriese'!D15</f>
         <v>c</v>
@@ -2915,13 +2924,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="26" t="str">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="30" t="str">
         <f>'Lukas Niedergriese'!A16</f>
         <v>Suche nach Tool für Projektmanagement</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="6" t="str">
         <f>'Lukas Niedergriese'!D16</f>
         <v>c</v>
@@ -2935,33 +2944,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="26">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="30" t="str">
         <f>'Lukas Niedergriese'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="6">
+        <v>Meeting: Aufgabenblatt 1</v>
+      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="6" t="str">
         <f>'Lukas Niedergriese'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="6">
+        <v>b</v>
+      </c>
+      <c r="F90" s="6" t="str">
         <f>'Lukas Niedergriese'!E17</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G90" s="6">
         <f>'Lukas Niedergriese'!F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="30">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2975,13 +2984,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="26">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="30">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2995,13 +3004,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="26">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="30">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -3015,13 +3024,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="26">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="30">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3035,13 +3044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="26">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="30">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3055,13 +3064,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="26">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="30">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3075,13 +3084,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="26">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="30">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3095,8 +3104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
@@ -3112,12 +3121,12 @@
       </c>
       <c r="G99" s="29"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="30" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B100" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3128,13 +3137,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="25" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="24" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Erstes Gruppenmeeting / Vorlesung: Überblick verschaffen</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>c</v>
@@ -3148,13 +3157,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="25" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="24" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Risikoanalyse erstellen</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3168,13 +3177,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="25" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B103" s="24" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Rollenverteilung erstellen</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>e</v>
@@ -3188,13 +3197,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="25" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B104" s="24" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Internetpräsenz ersrtellen (Homepage)</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3208,13 +3217,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="25" t="str">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="24" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Arbeitsrichtlinien und Qualitätsstandards definieren</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3228,13 +3237,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="25" t="str">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="24" t="str">
         <f>'Tobias Reis'!A17</f>
         <v>Aufwandserfassung zentralisieren</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
         <v>c</v>
@@ -3248,13 +3257,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="25" t="str">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="24" t="str">
         <f>'Tobias Reis'!A18</f>
         <v>Meeting: Besprechung der Themen</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="15" t="str">
         <f>'Tobias Reis'!D18</f>
         <v>d</v>
@@ -3268,13 +3277,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="24">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3288,13 +3297,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="24">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3308,13 +3317,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="24">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3328,13 +3337,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="24">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3348,13 +3357,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="24">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3368,13 +3377,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="24">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3389,28 +3398,87 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="99pn97YjHSQo8fvBiR8/GnGj60f49LSVmD79hmB+EEx8qnW4gCcXqr2aHWkWnKXafLnVzDaFKMygH2YFmV0QwA==" saltValue="1cAmtGSjxy+YKDtWyseXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3435,86 +3503,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3525,52 +3533,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3584,12 +3592,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3600,52 +3608,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3657,12 +3665,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3673,12 +3681,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3689,12 +3697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3705,12 +3713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -3721,12 +3729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3737,190 +3745,222 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3933,30 +3973,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3978,51 +3994,51 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4036,12 +4052,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4052,52 +4068,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4109,12 +4125,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4125,12 +4141,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4141,12 +4157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4157,12 +4173,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4173,198 +4189,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4377,30 +4433,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4421,52 +4453,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4480,12 +4512,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4496,52 +4528,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4553,12 +4585,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4572,12 +4604,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -4588,12 +4620,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4604,12 +4636,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4620,140 +4652,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>9</v>
@@ -4762,24 +4794,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.25</v>
@@ -4788,23 +4820,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-1</v>
@@ -4812,6 +4844,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4824,30 +4880,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4869,51 +4901,51 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4927,12 +4959,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4943,52 +4975,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5000,12 +5032,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
@@ -5016,12 +5048,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5032,12 +5064,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
@@ -5048,12 +5080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5064,12 +5096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
@@ -5080,190 +5112,222 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5276,30 +5340,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5320,52 +5360,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5379,12 +5419,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5395,52 +5435,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5452,12 +5492,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5468,12 +5508,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
@@ -5484,12 +5524,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5500,12 +5540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5513,201 +5553,225 @@
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>3.375</v>
+        <v>3.625</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5720,30 +5784,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5764,52 +5804,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5823,12 +5863,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5839,52 +5879,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5896,12 +5936,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
@@ -5912,12 +5952,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
@@ -5928,12 +5968,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="22" t="s">
         <v>11</v>
       </c>
@@ -5944,12 +5984,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
@@ -5960,12 +6000,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
@@ -5976,12 +6016,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="22" t="s">
         <v>9</v>
       </c>
@@ -5992,12 +6032,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="22" t="s">
         <v>10</v>
       </c>
@@ -6008,116 +6048,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>14</v>
@@ -6126,24 +6166,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>7</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2</v>
@@ -6152,23 +6192,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Ja!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>4</v>
@@ -6176,6 +6216,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -6188,30 +6252,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
